--- a/4-FerramentasDeDados/14. Validação de Dados - Atualização Automática - Material(1).xlsx
+++ b/4-FerramentasDeDados/14. Validação de Dados - Atualização Automática - Material(1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaof\Desktop\Excel Impressionador 2021\Módulo 7 - Ferramentas de Dados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\cursos\excel\4-FerramentasDeDados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1C740BA-6949-4CBA-B312-CF1D59B75C7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4E12374-9CC2-4F28-878F-06FC3F6C5777}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="1000" xr2:uid="{0D445F65-54A1-41E5-865A-2279466CCF1F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="1000" xr2:uid="{0D445F65-54A1-41E5-865A-2279466CCF1F}"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="73">
   <si>
     <t>Nome</t>
   </si>
@@ -53,9 +53,6 @@
     <t>Ultra</t>
   </si>
   <si>
-    <t>Blaster</t>
-  </si>
-  <si>
     <t>Power</t>
   </si>
   <si>
@@ -240,12 +237,33 @@
   </si>
   <si>
     <t>País</t>
+  </si>
+  <si>
+    <t>Black</t>
+  </si>
+  <si>
+    <t>Platinum</t>
+  </si>
+  <si>
+    <t>Gold</t>
+  </si>
+  <si>
+    <t>João Lira</t>
+  </si>
+  <si>
+    <t>Masculino</t>
+  </si>
+  <si>
+    <t>Filipe</t>
+  </si>
+  <si>
+    <t>UltraGold</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
@@ -265,7 +283,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -296,8 +314,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -320,31 +344,377 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="16">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1" tint="0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Estilo de Tabela 1" pivot="0" count="0" xr9:uid="{B9060BF9-D73D-42C8-B5E1-2E141395F39A}"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -356,10 +726,35 @@
 </styleSheet>
 </file>
 
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C9450BC5-0A3B-4A3D-8D67-FBDD8F79E9C0}" name="Base" displayName="Base" ref="A1:F3" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="14" tableBorderDxfId="15" totalsRowBorderDxfId="13">
+  <autoFilter ref="A1:F3" xr:uid="{C9450BC5-0A3B-4A3D-8D67-FBDD8F79E9C0}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{9ADB2222-840D-4FA0-8C28-0C1929F11A3B}" name="Nome" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{E83BA920-6339-404C-9D1A-8D3FD2100C45}" name="Equipe" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{C8B4FA4D-52A1-40D4-B0BF-85C93317BD5E}" name="Sexo" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{AD6D48A2-B50F-4186-B8D8-81F7C206DF80}" name="Idade" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{9CE3E081-F855-4849-962C-0EE292F1BB1F}" name="Nascimento" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{A5414B29-BF50-45ED-8EB0-7AD1F511B38A}" name="CPF" dataDxfId="7"/>
+  </tableColumns>
+  <tableStyleInfo name="Estilo de Tabela 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{31DE33CA-0FA4-4637-8CF5-1B425C63AA42}" name="Equipes" displayName="Equipes" ref="H1:H7" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" headerRowBorderDxfId="4" tableBorderDxfId="5" totalsRowBorderDxfId="3">
+  <autoFilter ref="H1:H7" xr:uid="{31DE33CA-0FA4-4637-8CF5-1B425C63AA42}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{618F70C9-1E37-41D5-BAF5-E5B81E34237A}" name="Equipe" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="Estilo de Tabela 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -397,7 +792,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -503,7 +898,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -645,7 +1040,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -653,171 +1048,132 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40D11AF4-2C8D-4548-9F11-4E03C4C35DE5}">
-  <dimension ref="A1:I7089"/>
+  <dimension ref="A1:I7077"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.5546875" customWidth="1"/>
-    <col min="2" max="6" width="19.21875" customWidth="1"/>
-    <col min="8" max="8" width="12.44140625" customWidth="1"/>
-    <col min="9" max="9" width="8.88671875" style="4"/>
+    <col min="1" max="1" width="21.5703125" customWidth="1"/>
+    <col min="2" max="6" width="19.28515625" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" customWidth="1"/>
+    <col min="9" max="9" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="16" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="10"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="H2" s="2" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" s="7">
+        <v>25</v>
+      </c>
+      <c r="E2" s="8">
+        <v>36489</v>
+      </c>
+      <c r="F2" s="10">
+        <v>12821433441</v>
+      </c>
+      <c r="H2" s="14" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="11"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="H3" s="2" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="10"/>
+      <c r="H3" s="14" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="H4" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="H5" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-    </row>
-    <row r="7089" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7089" s="1"/>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H4" s="15" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H5" s="15" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H6" s="17" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H7" s="17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7077" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7077" s="1"/>
     </row>
   </sheetData>
+  <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Opcoes de Sexo" prompt="Masculino, Feminino, Outros" sqref="C2:C3" xr:uid="{FD5BB326-EB23-4292-9562-4FD140914FAE}">
+      <formula1>"Masculino, Feminino, Outros"</formula1>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Prezado," error="Verifique se colocou um numero inteiro, caso contrário o valor não será aceito no excel." sqref="D2:D3" xr:uid="{FC93669F-F0DF-4AC0-8BD0-C06E0C1496FE}">
+      <formula1>0</formula1>
+      <formula2>200</formula2>
+    </dataValidation>
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E3" xr:uid="{699E88A1-5319-48B1-8CBC-99FA980C225F}">
+      <formula1>36474</formula1>
+      <formula2>45986</formula2>
+    </dataValidation>
+    <dataValidation type="textLength" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Prezado," error="Verifica se o CPF está com exatamente 11 caracteres. Caso contrário, repita o preenchimento._x000a_" sqref="F2:F3" xr:uid="{6B80DCA3-DA4B-4848-9414-661FE7960C80}">
+      <formula1>11</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B3" xr:uid="{1D796CDD-6011-4C50-9031-E7579C64A223}">
+      <formula1>$H$2:$H$7</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="2">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -827,296 +1183,296 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="21.21875" customWidth="1"/>
+    <col min="1" max="5" width="21.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="C1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="7" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D2" s="8" t="s">
+      <c r="D5" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="8" t="s">
+      <c r="B9" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C7" s="8" t="s">
+      <c r="E10" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="4"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="4"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="4"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="4"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="4"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="4"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="4"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="2"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="2"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -1129,22 +1485,22 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="30.21875" customWidth="1"/>
+    <col min="1" max="2" width="30.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
